--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1104949.344063043</v>
+        <v>1102560.847849038</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12866823.29189678</v>
+        <v>12912224.81445309</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673447</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11034078.77426271</v>
+        <v>11026898.61496043</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>260.8334463828066</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>8.751194497889847</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>94.57983363107959</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>58.28185552386362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>58.02202654638194</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>177.2979137777586</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1063,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>53.49587347377588</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="8">
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>177.2979137777587</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814261</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>54.45803047044437</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>131.2267966529902</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.0023302739422</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>285.1920064569007</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
-        <v>6.131939404317734</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.23703957756278</v>
+        <v>34.32106446353023</v>
       </c>
       <c r="T11" t="n">
-        <v>199.8933168658096</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9216203285411</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.507549269963</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.84596484644653</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
-        <v>1.880502973709383</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>119.0063113323295</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T12" t="n">
-        <v>188.7337879321259</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7548052458927</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>161.2341493931869</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>113.3607448954817</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>182.5818591928743</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.7868375990034</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>314.9813656337166</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1658,7 +1658,7 @@
         <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374742</v>
+        <v>148.9055307001832</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>152.6742629539648</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>24.94708824709634</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>124.9528013367978</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>36.4306205949047</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="21">
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>107.4021082756242</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>55.52079624060406</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>39.52129633183232</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105462</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>51.36569740310371</v>
       </c>
       <c r="H28" t="n">
-        <v>99.98993057842257</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>115.7063133373728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>192.8396132741332</v>
       </c>
     </row>
     <row r="32">
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428223</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3326,13 +3326,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="36">
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>9.146142788179482</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>133.8107367464748</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>96.03245356584297</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3673,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>35.88641949135499</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>112.7304175246777</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428146</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>46.35517081455701</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1853.982617026598</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C2" t="n">
-        <v>1485.020100086186</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>1126.754401479436</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>740.9661488811917</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>329.9802440915841</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,7 +4349,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2746.967338392416</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066532</v>
+        <v>2746.967338392416</v>
       </c>
       <c r="X2" t="n">
-        <v>2630.721789066532</v>
+        <v>2373.501580131336</v>
       </c>
       <c r="Y2" t="n">
-        <v>2240.58245709072</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181849</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4495,43 +4495,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1238.038871968309</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C5" t="n">
-        <v>1238.038871968309</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D5" t="n">
-        <v>879.773173361559</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E5" t="n">
-        <v>879.773173361559</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>702.670267143434</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>287.5978169884305</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4565,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4598,19 +4598,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269323</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008243</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.638712032431</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064547</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>364.5418494269123</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269123</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4747,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>585.3344285704424</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>585.3344285704424</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>585.3344285704424</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>585.3344285704424</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>585.3344285704424</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>364.5418494269123</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136265</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2068.109682148734</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C11" t="n">
-        <v>1699.147165208323</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D11" t="n">
-        <v>1340.881466601572</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E11" t="n">
-        <v>1208.329146750067</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F11" t="n">
-        <v>797.3432419604595</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>383.1994740069825</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>95.12674021213334</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I11" t="n">
-        <v>88.93286202595378</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J11" t="n">
-        <v>355.0642012408562</v>
+        <v>372.3074987251937</v>
       </c>
       <c r="K11" t="n">
-        <v>804.6646095371439</v>
+        <v>841.9378825128757</v>
       </c>
       <c r="L11" t="n">
-        <v>1399.335434274256</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M11" t="n">
-        <v>2092.690745039462</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N11" t="n">
-        <v>2801.879077992343</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3458.210249338812</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P11" t="n">
-        <v>3983.872718465756</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q11" t="n">
-        <v>4330.450594432744</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R11" t="n">
-        <v>4446.643101297689</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S11" t="n">
-        <v>4357.51477849207</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T11" t="n">
-        <v>4155.602337213474</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U11" t="n">
-        <v>3902.146155063433</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V11" t="n">
-        <v>3571.083267719862</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W11" t="n">
-        <v>3218.314612449748</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X11" t="n">
-        <v>2844.848854188668</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y11" t="n">
-        <v>2454.709522212856</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5610180783359</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1079887972089</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1735791359577</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9361241305021</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>312.401566157387</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G12" t="n">
-        <v>176.5353547735861</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>90.83235997919559</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I12" t="n">
-        <v>88.93286202595378</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J12" t="n">
-        <v>88.93286202595378</v>
+        <v>240.4596049779266</v>
       </c>
       <c r="K12" t="n">
-        <v>88.93286202595378</v>
+        <v>570.9683475412855</v>
       </c>
       <c r="L12" t="n">
-        <v>202.5778082285669</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M12" t="n">
-        <v>773.2490029834401</v>
+        <v>1653.719034637165</v>
       </c>
       <c r="N12" t="n">
-        <v>1373.432811094085</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O12" t="n">
-        <v>1900.26394489214</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P12" t="n">
-        <v>2303.759309775002</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q12" t="n">
-        <v>2523.566079172953</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.661360958479</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S12" t="n">
-        <v>2433.452965673298</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.812775842868</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.777619028835</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.625510797092</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.388154068891</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.536653863358</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.776355098404</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>251.795639190789</v>
+        <v>502.120467231113</v>
       </c>
       <c r="C13" t="n">
-        <v>88.93286202595378</v>
+        <v>502.120467231113</v>
       </c>
       <c r="D13" t="n">
-        <v>88.93286202595378</v>
+        <v>387.614664306384</v>
       </c>
       <c r="E13" t="n">
-        <v>88.93286202595378</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="F13" t="n">
-        <v>88.93286202595378</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G13" t="n">
-        <v>88.93286202595378</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H13" t="n">
-        <v>88.93286202595378</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I13" t="n">
-        <v>88.93286202595378</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J13" t="n">
-        <v>129.62136681485</v>
+        <v>138.4938672061384</v>
       </c>
       <c r="K13" t="n">
-        <v>275.3675175970667</v>
+        <v>292.4462654954962</v>
       </c>
       <c r="L13" t="n">
-        <v>491.7782096570518</v>
+        <v>519.3581290524916</v>
       </c>
       <c r="M13" t="n">
-        <v>723.2112244304527</v>
+        <v>761.8631567965998</v>
       </c>
       <c r="N13" t="n">
-        <v>956.9988052967127</v>
+        <v>1006.45948291229</v>
       </c>
       <c r="O13" t="n">
-        <v>1152.626386925557</v>
+        <v>1212.070690225096</v>
       </c>
       <c r="P13" t="n">
-        <v>1300.957607583599</v>
+        <v>1368.9446273804</v>
       </c>
       <c r="Q13" t="n">
-        <v>1348.06667824382</v>
+        <v>1421.968232139861</v>
       </c>
       <c r="R13" t="n">
-        <v>1348.06667824382</v>
+        <v>1421.968232139861</v>
       </c>
       <c r="S13" t="n">
-        <v>1163.640557846978</v>
+        <v>1421.968232139861</v>
       </c>
       <c r="T13" t="n">
-        <v>943.6538532015195</v>
+        <v>1421.968232139861</v>
       </c>
       <c r="U13" t="n">
-        <v>943.6538532015195</v>
+        <v>1421.968232139861</v>
       </c>
       <c r="V13" t="n">
-        <v>943.6538532015195</v>
+        <v>1421.968232139861</v>
       </c>
       <c r="W13" t="n">
-        <v>654.2366831645588</v>
+        <v>1132.5510621029</v>
       </c>
       <c r="X13" t="n">
-        <v>654.2366831645588</v>
+        <v>904.5615112048829</v>
       </c>
       <c r="Y13" t="n">
-        <v>433.4441040210287</v>
+        <v>683.7689320613528</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555044</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5282,16 +5282,16 @@
         <v>841.937882512877</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021281</v>
@@ -5306,22 +5306,22 @@
         <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750193</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469743</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856058</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594978</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619166</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J15" t="n">
-        <v>237.6774710289341</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>237.6774710289341</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L15" t="n">
-        <v>728.4098038726853</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
-        <v>1320.428158124813</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1320.428158124813</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O15" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.81162322608053</v>
+        <v>408.6377536518978</v>
       </c>
       <c r="C16" t="n">
-        <v>92.81162322608053</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="D16" t="n">
-        <v>92.81162322608053</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="E16" t="n">
-        <v>92.81162322608053</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="F16" t="n">
         <v>92.81162322608053</v>
@@ -5440,10 +5440,10 @@
         <v>292.4462654954959</v>
       </c>
       <c r="L16" t="n">
-        <v>519.358129052491</v>
+        <v>519.3581290524912</v>
       </c>
       <c r="M16" t="n">
-        <v>761.8631567965991</v>
+        <v>761.8631567965994</v>
       </c>
       <c r="N16" t="n">
         <v>1006.459482912289</v>
@@ -5461,25 +5461,25 @@
         <v>1421.96823213986</v>
       </c>
       <c r="S16" t="n">
-        <v>1238.79804187879</v>
+        <v>1421.96823213986</v>
       </c>
       <c r="T16" t="n">
-        <v>1019.119259593172</v>
+        <v>1421.96823213986</v>
       </c>
       <c r="U16" t="n">
-        <v>864.9028323669454</v>
+        <v>1132.892018454587</v>
       </c>
       <c r="V16" t="n">
-        <v>610.2183441610586</v>
+        <v>1132.892018454587</v>
       </c>
       <c r="W16" t="n">
-        <v>320.8011741240979</v>
+        <v>843.4748484176259</v>
       </c>
       <c r="X16" t="n">
-        <v>92.81162322608053</v>
+        <v>615.4852975196086</v>
       </c>
       <c r="Y16" t="n">
-        <v>92.81162322608053</v>
+        <v>590.2862184821375</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>726.9555321712448</v>
+        <v>684.2343000885884</v>
       </c>
       <c r="C19" t="n">
-        <v>558.019349243338</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310021</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310021</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>948.3240787939685</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1276.192266568843</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>1484.310297575604</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>1643.329255468262</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>1697.837961401188</v>
       </c>
       <c r="R19" t="n">
-        <v>2410.164476918741</v>
+        <v>1630.79225765359</v>
       </c>
       <c r="S19" t="n">
-        <v>2410.164476918741</v>
+        <v>1447.937423308495</v>
       </c>
       <c r="T19" t="n">
-        <v>2190.563011941681</v>
+        <v>1228.335958331436</v>
       </c>
       <c r="U19" t="n">
-        <v>1901.487785285879</v>
+        <v>1228.335958331436</v>
       </c>
       <c r="V19" t="n">
-        <v>1646.803297079992</v>
+        <v>973.6514701255489</v>
       </c>
       <c r="W19" t="n">
-        <v>1357.386127043032</v>
+        <v>684.2343000885884</v>
       </c>
       <c r="X19" t="n">
-        <v>1129.396576145015</v>
+        <v>684.2343000885884</v>
       </c>
       <c r="Y19" t="n">
-        <v>908.6039970014846</v>
+        <v>684.2343000885884</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.6725264685176</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406107</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282751</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458821</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.881471216013</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583152</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377265</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442287</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987573</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400714</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400714</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7369613277356</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>215.8238677453426</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>215.8238677453426</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138413</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703112</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,19 +6212,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6233,7 +6233,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6242,7 +6242,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1057.955258982919</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C28" t="n">
-        <v>889.0190760550124</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D28" t="n">
-        <v>738.9024366426767</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E28" t="n">
-        <v>590.9893430602835</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F28" t="n">
-        <v>444.0993955623733</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G28" t="n">
-        <v>276.9032962772528</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854707</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W28" t="n">
-        <v>1688.385853854707</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>1460.396302956689</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y28" t="n">
-        <v>1239.603723813159</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192616</v>
@@ -6470,16 +6470,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6658,13 +6658,13 @@
         <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121644</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270448</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,16 +6859,16 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
         <v>2035.089393279802</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>815.6105350483875</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>665.4938956360518</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>517.5808020536587</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>370.6908545557483</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7105,40 +7105,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>709.4207169875</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>2191.112710026075</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7488,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,73 +7543,73 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
         <v>1280.315625093766</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.853600740071</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121641</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121641</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121641</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121641</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>177.721318527044</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2333.093974969474</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2113.492509992416</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1824.417283336614</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138409</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703107</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -9319,28 +9319,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
-        <v>171.8177168444618</v>
+        <v>81.37157150594243</v>
       </c>
       <c r="O19" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250.7035734192716</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>50.29152613728936</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>6.012671705440908</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>35.25472812273067</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.6133991430958</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>141.0883229563035</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>83.95015354161612</v>
+        <v>81.804576744409</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>70.38873914821363</v>
+        <v>67.18075159108353</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1893431629256</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>50.29152613729099</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>50.29152613729093</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -23701,16 +23701,16 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>133.5111885944557</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>193.6375651049985</v>
       </c>
     </row>
     <row r="17">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>42.29401976183001</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>29.94462611521699</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
     </row>
     <row r="21">
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>32.89260457059967</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>125.5054897610405</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>126.0028419604373</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
     </row>
     <row r="26">
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="H28" t="n">
-        <v>40.30478226780131</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>25.74504007796162</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194166</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>43.04708356698217</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25214,13 +25214,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="36">
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>139.4693302300329</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>31.71340154579408</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>52.58301945236938</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>250.2980548978892</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>180.5336875992868</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>112.9792378643594</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194242</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>134.6711151870876</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894137.7707485886</v>
+        <v>915051.8459095845</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915051.8459095842</v>
+        <v>915051.8459095843</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>962425.9658310406</v>
+        <v>931069.5404820946</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>962425.9658310405</v>
+        <v>962425.9658310409</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>962425.9658310406</v>
+        <v>962425.9658310405</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>962425.9658310409</v>
+        <v>962425.9658310408</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>962425.9658310406</v>
+        <v>962425.9658310408</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>962425.9658310406</v>
+        <v>962425.9658310405</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>962425.9658310409</v>
+        <v>962425.9658310408</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>962425.9658310406</v>
+        <v>962425.9658310408</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>962425.9658310405</v>
+        <v>962425.9658310406</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="E2" t="n">
-        <v>437556.7814301602</v>
+        <v>447791.3288493711</v>
       </c>
       <c r="F2" t="n">
-        <v>447791.3288493709</v>
+        <v>447791.3288493708</v>
       </c>
       <c r="G2" t="n">
+        <v>453874.7474025432</v>
+      </c>
+      <c r="H2" t="n">
         <v>464109.2948217536</v>
-      </c>
-      <c r="H2" t="n">
-        <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217536</v>
@@ -26338,13 +26338,13 @@
         <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="L2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="L2" t="n">
-        <v>464109.2948217537</v>
-      </c>
       <c r="M2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217535</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217537</v>
@@ -26353,7 +26353,7 @@
         <v>464109.2948217536</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>267417.2124874758</v>
+        <v>313680.0588189858</v>
       </c>
       <c r="F3" t="n">
-        <v>45165.8309589986</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557904</v>
+        <v>11167.23623557952</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>69841.74356187442</v>
+        <v>81924.27863832918</v>
       </c>
       <c r="N3" t="n">
-        <v>11875.16680579302</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224693</v>
+        <v>3023.297977224956</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
-        <v>729.6930833181787</v>
+        <v>754.8555874581933</v>
       </c>
       <c r="F4" t="n">
         <v>754.855587458193</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>4357.104940382855</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186736</v>
@@ -26476,13 +26476,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>96331.75850690351</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-1058176.412721075</v>
       </c>
       <c r="C6" t="n">
-        <v>270568.3330065173</v>
+        <v>270568.3330065174</v>
       </c>
       <c r="D6" t="n">
-        <v>270568.3330065172</v>
+        <v>270568.3330065174</v>
       </c>
       <c r="E6" t="n">
-        <v>73078.11735246264</v>
+        <v>33108.6003255122</v>
       </c>
       <c r="F6" t="n">
-        <v>301728.5137890757</v>
+        <v>346788.6591444982</v>
       </c>
       <c r="G6" t="n">
-        <v>336992.8327204001</v>
+        <v>337148.6404449805</v>
       </c>
       <c r="H6" t="n">
-        <v>348160.0689559793</v>
+        <v>348125.3310305435</v>
       </c>
       <c r="I6" t="n">
-        <v>348160.0689559791</v>
+        <v>348125.3310305435</v>
       </c>
       <c r="J6" t="n">
-        <v>130628.8665587017</v>
+        <v>130594.128633266</v>
       </c>
       <c r="K6" t="n">
-        <v>348160.0689559791</v>
+        <v>348125.3310305437</v>
       </c>
       <c r="L6" t="n">
-        <v>348160.0689559792</v>
+        <v>348125.3310305434</v>
       </c>
       <c r="M6" t="n">
-        <v>278318.3253941048</v>
+        <v>266201.0523922141</v>
       </c>
       <c r="N6" t="n">
-        <v>336284.9021501862</v>
+        <v>348125.3310305435</v>
       </c>
       <c r="O6" t="n">
-        <v>345136.7709787544</v>
+        <v>345102.0330533184</v>
       </c>
       <c r="P6" t="n">
-        <v>348160.0689559791</v>
+        <v>348125.3310305435</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1318.476301246727</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1111.660775324422</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>228.6996006534282</v>
+        <v>268.2643481230878</v>
       </c>
       <c r="F3" t="n">
-        <v>39.5647474696591</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.934451625288602</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>280.2593199221297</v>
+        <v>328.7438349237141</v>
       </c>
       <c r="F4" t="n">
-        <v>48.48451500158421</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>280.2593199221297</v>
+        <v>328.7438349237138</v>
       </c>
       <c r="N4" t="n">
-        <v>48.48451500158421</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>280.2593199221297</v>
+        <v>328.7438349237141</v>
       </c>
       <c r="N4" t="n">
-        <v>48.48451500158421</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>150.0882792706468</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>319.001063972245</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>72.66698746754824</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27591,7 +27591,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>227.9299826817493</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>348.8540191953295</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>117.3098506095619</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>166.0530758023933</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="8">
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27910,13 +27910,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>150.4543446923762</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>277.2566436803264</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351647</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>232.0649678661466</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.300407241192866</v>
+        <v>5.459461502377427</v>
       </c>
       <c r="H11" t="n">
-        <v>54.28279565886645</v>
+        <v>55.91171011122284</v>
       </c>
       <c r="I11" t="n">
-        <v>204.3439501660882</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J11" t="n">
-        <v>449.8654390871935</v>
+        <v>463.3649706874066</v>
       </c>
       <c r="K11" t="n">
-        <v>674.2316776068876</v>
+        <v>694.4639760830432</v>
       </c>
       <c r="L11" t="n">
-        <v>836.444015714544</v>
+        <v>861.5439710364266</v>
       </c>
       <c r="M11" t="n">
-        <v>930.7051329901076</v>
+        <v>958.6336695293311</v>
       </c>
       <c r="N11" t="n">
-        <v>945.7649150641469</v>
+        <v>974.145364522961</v>
       </c>
       <c r="O11" t="n">
-        <v>893.0589905595352</v>
+        <v>919.8578442086955</v>
       </c>
       <c r="P11" t="n">
-        <v>762.2051867925862</v>
+        <v>785.0773883687526</v>
       </c>
       <c r="Q11" t="n">
-        <v>572.3843524673665</v>
+        <v>589.5604233148608</v>
       </c>
       <c r="R11" t="n">
-        <v>332.9517063645817</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
-        <v>120.7830300086826</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T11" t="n">
-        <v>23.20253269832179</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4240325792954292</v>
+        <v>0.4367569201901941</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.835967893247676</v>
+        <v>2.921069425540906</v>
       </c>
       <c r="H12" t="n">
-        <v>27.38947939004993</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>97.64187702629062</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735819</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848226</v>
       </c>
       <c r="L12" t="n">
-        <v>253.3472547320087</v>
+        <v>634.2436048745726</v>
       </c>
       <c r="M12" t="n">
-        <v>718.5695841794659</v>
+        <v>740.1323715504303</v>
       </c>
       <c r="N12" t="n">
-        <v>737.5879829021665</v>
+        <v>759.721473092764</v>
       </c>
       <c r="O12" t="n">
-        <v>674.7489048465205</v>
+        <v>422.3544583169075</v>
       </c>
       <c r="P12" t="n">
-        <v>541.5454830535848</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>362.0088138819314</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>176.0787784947988</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>52.67685977150833</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.43094076269567</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
-        <v>0.186576835082084</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.377580215362949</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
-        <v>21.13884955113605</v>
+        <v>21.77318271548568</v>
       </c>
       <c r="I13" t="n">
-        <v>71.50032138564217</v>
+        <v>73.64589818284928</v>
       </c>
       <c r="J13" t="n">
-        <v>168.0949212261605</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>276.2315922939862</v>
+        <v>284.5207311900887</v>
       </c>
       <c r="L13" t="n">
-        <v>353.481334927688</v>
+        <v>364.088578864062</v>
       </c>
       <c r="M13" t="n">
-        <v>372.6965059409393</v>
+        <v>383.8803574265023</v>
       </c>
       <c r="N13" t="n">
-        <v>363.8346160473141</v>
+        <v>374.7525405416876</v>
       </c>
       <c r="O13" t="n">
-        <v>336.0601562587559</v>
+        <v>346.1446266465964</v>
       </c>
       <c r="P13" t="n">
-        <v>287.5575198653515</v>
+        <v>296.1865264282425</v>
       </c>
       <c r="Q13" t="n">
-        <v>199.0899214882557</v>
+        <v>205.0641983561743</v>
       </c>
       <c r="R13" t="n">
-        <v>106.9046522289559</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>41.43473884409793</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
-        <v>10.15875182927805</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1296861935652519</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>273.1667658614682</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745724</v>
@@ -32087,19 +32087,19 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.2575834086216</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>688.8020111197787</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>268.8195345605072</v>
+        <v>282.3190661607203</v>
       </c>
       <c r="K11" t="n">
-        <v>454.1418265619071</v>
+        <v>474.3741250380627</v>
       </c>
       <c r="L11" t="n">
-        <v>600.6776007445567</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>700.3588997628349</v>
+        <v>728.2874363020584</v>
       </c>
       <c r="N11" t="n">
-        <v>716.3518514675559</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>662.9607791378485</v>
+        <v>689.7596327870087</v>
       </c>
       <c r="P11" t="n">
-        <v>530.9721910373166</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.078662592917</v>
+        <v>367.2547334404113</v>
       </c>
       <c r="R11" t="n">
-        <v>117.3661685504496</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069152</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104636</v>
       </c>
       <c r="L12" t="n">
-        <v>114.7928749521345</v>
+        <v>495.6892250946984</v>
       </c>
       <c r="M12" t="n">
-        <v>576.4355502574476</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>606.2462708188332</v>
+        <v>628.3797610094307</v>
       </c>
       <c r="O12" t="n">
-        <v>532.1526604020761</v>
+        <v>279.758213872463</v>
       </c>
       <c r="P12" t="n">
-        <v>407.5710756392546</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>222.0270397959099</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>30.39927453083482</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.09949978676438</v>
+        <v>46.14368078793721</v>
       </c>
       <c r="K13" t="n">
-        <v>147.2183341234509</v>
+        <v>155.5074730195533</v>
       </c>
       <c r="L13" t="n">
-        <v>218.5966586464497</v>
+        <v>229.2039025828237</v>
       </c>
       <c r="M13" t="n">
-        <v>233.7707219933343</v>
+        <v>244.9545734788972</v>
       </c>
       <c r="N13" t="n">
-        <v>236.1490715820809</v>
+        <v>247.0669960764544</v>
       </c>
       <c r="O13" t="n">
-        <v>197.6036178069131</v>
+        <v>207.6880881947536</v>
       </c>
       <c r="P13" t="n">
-        <v>149.8295158162039</v>
+        <v>158.4585223790949</v>
       </c>
       <c r="Q13" t="n">
-        <v>47.58491985880985</v>
+        <v>53.55919672672846</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>146.3291391948015</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946982</v>
@@ -35735,19 +35735,19 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>331.1799876513882</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>546.2057666753343</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
